--- a/assets/template/neraca-saldo-tahunan.xlsx
+++ b/assets/template/neraca-saldo-tahunan.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="NERACA SALDO" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Neraca 2021" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Neraca" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <si>
     <t xml:space="preserve">KOPERASI KONSUMEN PENGAWAI NEGERI </t>
   </si>
@@ -26,9 +26,6 @@
     <t xml:space="preserve">KOPKES MANDIRI SYARI'AH ACEH BARAT DAYA  </t>
   </si>
   <si>
-    <t xml:space="preserve">template 1</t>
-  </si>
-  <si>
     <t>NO</t>
   </si>
   <si>
@@ -155,9 +152,6 @@
     <t xml:space="preserve">JUMLAH </t>
   </si>
   <si>
-    <t xml:space="preserve">Blangpidie, 31 Desember 2021</t>
-  </si>
-  <si>
     <t xml:space="preserve">PENGURUS KKPN KOPKES MANDIRI SYARI'AH ABDYA </t>
   </si>
   <si>
@@ -192,12 +186,6 @@
   </si>
   <si>
     <t>Mukhtaruddin,S.Ag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">template 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NERACA  PER 31 DESEMBER 2021</t>
   </si>
   <si>
     <t>AKTIVA</t>
@@ -461,7 +449,7 @@
       <u/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -472,6 +460,12 @@
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor theme="5" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="5"/>
+        <bgColor indexed="5"/>
       </patternFill>
     </fill>
     <fill>
@@ -699,7 +693,7 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="160" applyNumberFormat="1" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="95">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -788,6 +782,27 @@
     <xf fontId="8" fillId="0" borderId="5" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1" vertical="center"/>
     </xf>
+    <xf fontId="1" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="11" fillId="3" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="11" fillId="3" borderId="5" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1" vertical="center"/>
+    </xf>
+    <xf fontId="11" fillId="3" borderId="5" numFmtId="161" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="8" fillId="3" borderId="5" numFmtId="161" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="11" fillId="3" borderId="5" numFmtId="161" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="11" fillId="3" borderId="6" numFmtId="161" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf fontId="11" fillId="0" borderId="7" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1" vertical="center"/>
     </xf>
@@ -800,19 +815,19 @@
     <xf fontId="11" fillId="0" borderId="8" numFmtId="161" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="7" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf fontId="7" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="12" fillId="3" borderId="9" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="12" fillId="3" borderId="10" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="10" fillId="3" borderId="11" numFmtId="161" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="7" fillId="3" borderId="0" numFmtId="161" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf fontId="12" fillId="4" borderId="9" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="12" fillId="4" borderId="10" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="10" fillId="4" borderId="11" numFmtId="161" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="7" fillId="4" borderId="0" numFmtId="161" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf fontId="11" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1528,7 +1543,7 @@
     <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView zoomScale="84" workbookViewId="0">
+    <sheetView topLeftCell="C16" zoomScale="84" workbookViewId="0">
       <selection activeCell="G51" activeCellId="0" sqref="G51"/>
     </sheetView>
   </sheetViews>
@@ -1571,9 +1586,7 @@
       <c r="H2" s="3"/>
     </row>
     <row r="3" ht="12.75" customHeight="1">
-      <c r="A3" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -1595,21 +1608,21 @@
     <row r="5" ht="13.5"/>
     <row r="6" ht="20.25" customHeight="1">
       <c r="A6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="C6" s="6" t="s">
         <v>4</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>5</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H6" s="7"/>
     </row>
@@ -1617,22 +1630,22 @@
       <c r="A7" s="9"/>
       <c r="B7" s="10"/>
       <c r="C7" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="11" t="s">
-        <v>9</v>
-      </c>
       <c r="E7" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="11" t="s">
-        <v>9</v>
-      </c>
       <c r="G7" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="12" t="s">
         <v>8</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="8" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -1640,17 +1653,15 @@
         <v>1</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="16">
-        <v>543923000</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C8" s="16"/>
       <c r="D8" s="17"/>
       <c r="E8" s="18"/>
       <c r="F8" s="18"/>
       <c r="G8" s="16">
         <f t="shared" ref="G8:G12" si="0">SUM(C8)</f>
-        <v>543923000</v>
+        <v>0</v>
       </c>
       <c r="H8" s="19"/>
       <c r="I8" s="20"/>
@@ -1660,17 +1671,15 @@
         <v>2</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="23">
-        <v>10946641974</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C9" s="23"/>
       <c r="D9" s="24"/>
       <c r="E9" s="25"/>
       <c r="F9" s="25"/>
       <c r="G9" s="23">
         <f t="shared" si="0"/>
-        <v>10946641974</v>
+        <v>0</v>
       </c>
       <c r="H9" s="26"/>
     </row>
@@ -1679,17 +1688,15 @@
         <v>3</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="23">
-        <v>390000</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C10" s="23"/>
       <c r="D10" s="24"/>
       <c r="E10" s="25"/>
       <c r="F10" s="25"/>
       <c r="G10" s="23">
         <f t="shared" si="0"/>
-        <v>390000</v>
+        <v>0</v>
       </c>
       <c r="H10" s="26"/>
     </row>
@@ -1698,10 +1705,10 @@
         <v>4</v>
       </c>
       <c r="B11" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="23" t="s">
         <v>13</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>14</v>
       </c>
       <c r="D11" s="24"/>
       <c r="E11" s="25"/>
@@ -1717,17 +1724,15 @@
         <v>5</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="23">
-        <v>54225000</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C12" s="23"/>
       <c r="D12" s="24"/>
       <c r="E12" s="25"/>
       <c r="F12" s="25"/>
       <c r="G12" s="23">
         <f t="shared" si="0"/>
-        <v>54225000</v>
+        <v>0</v>
       </c>
       <c r="H12" s="26"/>
     </row>
@@ -1736,7 +1741,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" s="23"/>
       <c r="D13" s="24"/>
@@ -1750,7 +1755,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14" s="23"/>
       <c r="D14" s="27"/>
@@ -1764,18 +1769,16 @@
         <v>8</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C15" s="23"/>
-      <c r="D15" s="27">
-        <v>6968727</v>
-      </c>
+      <c r="D15" s="27"/>
       <c r="E15" s="24"/>
       <c r="F15" s="24"/>
       <c r="G15" s="24"/>
       <c r="H15" s="28">
         <f t="shared" ref="H15:H36" si="1">SUM(D15)</f>
-        <v>6968727</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" ht="20.100000000000001" customHeight="1">
@@ -1783,18 +1786,16 @@
         <v>9</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16" s="24"/>
-      <c r="D16" s="27">
-        <v>793145</v>
-      </c>
+      <c r="D16" s="27"/>
       <c r="E16" s="24"/>
       <c r="F16" s="24"/>
       <c r="G16" s="24"/>
       <c r="H16" s="28">
         <f t="shared" si="1"/>
-        <v>793145</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" ht="20.100000000000001" customHeight="1">
@@ -1802,18 +1803,16 @@
         <v>10</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="24"/>
-      <c r="D17" s="27">
-        <v>287983254</v>
-      </c>
+      <c r="D17" s="27"/>
       <c r="E17" s="24"/>
       <c r="F17" s="24"/>
       <c r="G17" s="24"/>
       <c r="H17" s="28">
         <f t="shared" si="1"/>
-        <v>287983254</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" ht="20.100000000000001" customHeight="1">
@@ -1821,18 +1820,16 @@
         <v>11</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C18" s="24"/>
-      <c r="D18" s="27">
-        <v>161341195</v>
-      </c>
+      <c r="D18" s="27"/>
       <c r="E18" s="24"/>
       <c r="F18" s="24"/>
       <c r="G18" s="24"/>
       <c r="H18" s="28">
         <f t="shared" si="1"/>
-        <v>161341195</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" ht="20.100000000000001" customHeight="1">
@@ -1840,18 +1837,16 @@
         <v>12</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C19" s="24"/>
-      <c r="D19" s="27">
-        <v>218728760</v>
-      </c>
+      <c r="D19" s="27"/>
       <c r="E19" s="24"/>
       <c r="F19" s="24"/>
       <c r="G19" s="24"/>
       <c r="H19" s="28">
         <f t="shared" si="1"/>
-        <v>218728760</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" ht="20.100000000000001" customHeight="1">
@@ -1859,18 +1854,16 @@
         <v>13</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C20" s="24"/>
-      <c r="D20" s="27">
-        <v>97854870</v>
-      </c>
+      <c r="D20" s="27"/>
       <c r="E20" s="24"/>
       <c r="F20" s="24"/>
       <c r="G20" s="24"/>
       <c r="H20" s="28">
         <f t="shared" si="1"/>
-        <v>97854870</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" ht="20.100000000000001" customHeight="1">
@@ -1878,18 +1871,16 @@
         <v>14</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C21" s="24"/>
-      <c r="D21" s="27">
-        <v>50930650</v>
-      </c>
+      <c r="D21" s="27"/>
       <c r="E21" s="24"/>
       <c r="F21" s="24"/>
       <c r="G21" s="24"/>
       <c r="H21" s="28">
         <f t="shared" si="1"/>
-        <v>50930650</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -1897,18 +1888,16 @@
         <v>15</v>
       </c>
       <c r="B22" s="29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" s="17"/>
-      <c r="D22" s="27">
-        <v>1868022</v>
-      </c>
+      <c r="D22" s="27"/>
       <c r="E22" s="17"/>
       <c r="F22" s="17"/>
       <c r="G22" s="17"/>
       <c r="H22" s="28">
         <f t="shared" si="1"/>
-        <v>1868022</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" ht="20.100000000000001" customHeight="1">
@@ -1916,18 +1905,16 @@
         <v>16</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" s="24"/>
-      <c r="D23" s="27">
-        <v>15504000</v>
-      </c>
+      <c r="D23" s="27"/>
       <c r="E23" s="24"/>
       <c r="F23" s="24"/>
       <c r="G23" s="24"/>
       <c r="H23" s="28">
         <f t="shared" si="1"/>
-        <v>15504000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" ht="20.100000000000001" customHeight="1">
@@ -1935,18 +1922,16 @@
         <v>17</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C24" s="24"/>
-      <c r="D24" s="27">
-        <v>7087018000</v>
-      </c>
+      <c r="D24" s="27"/>
       <c r="E24" s="24"/>
       <c r="F24" s="24"/>
       <c r="G24" s="24"/>
       <c r="H24" s="28">
         <f t="shared" si="1"/>
-        <v>7087018000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" ht="20.100000000000001" customHeight="1">
@@ -1954,18 +1939,16 @@
         <v>18</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C25" s="17"/>
-      <c r="D25" s="27">
-        <v>188334400</v>
-      </c>
+      <c r="D25" s="27"/>
       <c r="E25" s="17"/>
       <c r="F25" s="17"/>
       <c r="G25" s="17"/>
       <c r="H25" s="28">
         <f t="shared" si="1"/>
-        <v>188334400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" ht="20.100000000000001" customHeight="1">
@@ -1973,18 +1956,16 @@
         <v>19</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C26" s="24"/>
-      <c r="D26" s="27">
-        <v>1841600895</v>
-      </c>
+      <c r="D26" s="27"/>
       <c r="E26" s="24"/>
       <c r="F26" s="24"/>
       <c r="G26" s="24"/>
       <c r="H26" s="28">
         <f t="shared" si="1"/>
-        <v>1841600895</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" ht="14.25" customHeight="1">
@@ -1992,7 +1973,7 @@
         <v>20</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C27" s="24"/>
       <c r="D27" s="27"/>
@@ -2006,16 +1987,14 @@
         <v>21</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C28" s="24"/>
-      <c r="D28" s="27">
-        <v>1022454794</v>
-      </c>
+      <c r="D28" s="27"/>
       <c r="E28" s="24"/>
       <c r="F28" s="27">
         <f>SUM(D28)</f>
-        <v>1022454794</v>
+        <v>0</v>
       </c>
       <c r="G28" s="24"/>
       <c r="H28" s="26"/>
@@ -2025,15 +2004,13 @@
         <v>22</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="C29" s="27">
-        <v>1932000</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="C29" s="27"/>
       <c r="D29" s="25"/>
       <c r="E29" s="27">
         <f t="shared" ref="E29:E35" si="2">SUM(C29)</f>
-        <v>1932000</v>
+        <v>0</v>
       </c>
       <c r="F29" s="25"/>
       <c r="G29" s="24"/>
@@ -2044,15 +2021,13 @@
         <v>23</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="C30" s="27">
-        <v>9600000</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C30" s="27"/>
       <c r="D30" s="25"/>
       <c r="E30" s="27">
         <f t="shared" si="2"/>
-        <v>9600000</v>
+        <v>0</v>
       </c>
       <c r="F30" s="25"/>
       <c r="G30" s="24"/>
@@ -2063,15 +2038,13 @@
         <v>24</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="C31" s="27">
-        <v>131400000</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C31" s="27"/>
       <c r="D31" s="25"/>
       <c r="E31" s="27">
         <f t="shared" si="2"/>
-        <v>131400000</v>
+        <v>0</v>
       </c>
       <c r="F31" s="25"/>
       <c r="G31" s="24"/>
@@ -2082,15 +2055,13 @@
         <v>25</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C32" s="27">
-        <v>9588000</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="C32" s="27"/>
       <c r="D32" s="25"/>
       <c r="E32" s="27">
         <f t="shared" si="2"/>
-        <v>9588000</v>
+        <v>0</v>
       </c>
       <c r="F32" s="25"/>
       <c r="G32" s="24"/>
@@ -2101,53 +2072,48 @@
         <v>26</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C33" s="25"/>
-      <c r="D33" s="25">
-        <v>684041004</v>
-      </c>
+      <c r="D33" s="25"/>
       <c r="E33" s="25"/>
       <c r="F33" s="25"/>
       <c r="G33" s="24"/>
       <c r="H33" s="28">
         <f t="shared" si="1"/>
-        <v>684041004</v>
-      </c>
-    </row>
-    <row r="34" ht="20.100000000000001" customHeight="1">
-      <c r="A34" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" s="30" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A34" s="31">
         <v>27</v>
       </c>
-      <c r="B34" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="C34" s="25"/>
-      <c r="D34" s="23">
-        <v>7500000</v>
-      </c>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="28">
+      <c r="B34" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" s="33"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="36">
         <f t="shared" si="1"/>
-        <v>7500000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" s="30"/>
     </row>
     <row r="35" ht="20.100000000000001" customHeight="1">
       <c r="A35" s="21">
         <v>28</v>
       </c>
       <c r="B35" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="C35" s="25">
-        <v>9387250</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="C35" s="25"/>
       <c r="D35" s="27"/>
       <c r="E35" s="27">
         <f t="shared" si="2"/>
-        <v>9387250</v>
+        <v>0</v>
       </c>
       <c r="F35" s="25"/>
       <c r="G35" s="24"/>
@@ -2158,18 +2124,16 @@
         <v>29</v>
       </c>
       <c r="B36" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C36" s="25"/>
-      <c r="D36" s="27">
-        <v>14539750</v>
-      </c>
+      <c r="D36" s="27"/>
       <c r="E36" s="27"/>
       <c r="F36" s="25"/>
       <c r="G36" s="24"/>
       <c r="H36" s="27">
         <f t="shared" si="1"/>
-        <v>14539750</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" ht="20.100000000000001" customHeight="1">
@@ -2177,7 +2141,7 @@
         <v>30</v>
       </c>
       <c r="B37" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C37" s="25"/>
       <c r="D37" s="27"/>
@@ -2191,13 +2155,11 @@
         <v>31</v>
       </c>
       <c r="B38" s="22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C38" s="25"/>
       <c r="D38" s="27"/>
-      <c r="E38" s="27">
-        <v>860547544</v>
-      </c>
+      <c r="E38" s="27"/>
       <c r="F38" s="25"/>
       <c r="G38" s="24"/>
       <c r="H38" s="27"/>
@@ -2207,198 +2169,193 @@
         <v>32</v>
       </c>
       <c r="B39" s="22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C39" s="25"/>
-      <c r="D39" s="27">
-        <v>19625758</v>
-      </c>
+      <c r="D39" s="27"/>
       <c r="E39" s="27"/>
       <c r="F39" s="25"/>
       <c r="G39" s="24"/>
       <c r="H39" s="27">
-        <v>41139446</v>
+        <f>D39</f>
+        <v>0</v>
       </c>
     </row>
     <row r="40" ht="20.100000000000001" customHeight="1">
       <c r="A40" s="21">
         <v>33</v>
       </c>
-      <c r="B40" s="30" t="s">
+      <c r="B40" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40" s="38"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="39"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="40"/>
+      <c r="H40" s="27"/>
+    </row>
+    <row r="41" s="41" customFormat="1" ht="27" customHeight="1">
+      <c r="A41" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="C40" s="31"/>
-      <c r="D40" s="32"/>
-      <c r="E40" s="32"/>
-      <c r="F40" s="31"/>
-      <c r="G40" s="33"/>
-      <c r="H40" s="27">
-        <v>839033856</v>
-      </c>
-    </row>
-    <row r="41" s="34" customFormat="1" ht="27" customHeight="1">
-      <c r="A41" s="35" t="s">
+      <c r="B41" s="43"/>
+      <c r="C41" s="44">
+        <f t="shared" ref="C41:H41" si="3">SUM(C8:C40)</f>
+        <v>0</v>
+      </c>
+      <c r="D41" s="44">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E41" s="44">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F41" s="44">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G41" s="44">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H41" s="44">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I41" s="45"/>
+    </row>
+    <row r="42" ht="12" customHeight="1">
+      <c r="A42" s="46"/>
+      <c r="B42" s="47"/>
+      <c r="C42" s="48"/>
+      <c r="D42" s="47"/>
+      <c r="E42" s="47"/>
+      <c r="F42" s="47"/>
+      <c r="G42" s="47"/>
+      <c r="H42" s="47"/>
+    </row>
+    <row r="43" ht="15">
+      <c r="A43" s="46"/>
+      <c r="B43" s="47"/>
+      <c r="C43" s="47"/>
+      <c r="D43" s="49"/>
+      <c r="E43" s="49"/>
+      <c r="F43" s="49"/>
+      <c r="G43" s="47"/>
+      <c r="H43" s="47"/>
+    </row>
+    <row r="44" ht="5.25" customHeight="1">
+      <c r="A44" s="46"/>
+      <c r="B44" s="47"/>
+      <c r="C44" s="47"/>
+      <c r="D44" s="46"/>
+      <c r="E44" s="46"/>
+      <c r="F44" s="46"/>
+      <c r="G44" s="47"/>
+      <c r="H44" s="47"/>
+    </row>
+    <row r="45" ht="16.5">
+      <c r="A45" s="46"/>
+      <c r="B45" s="47"/>
+      <c r="C45" s="47"/>
+      <c r="D45" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="B41" s="36"/>
-      <c r="C41" s="37">
-        <f t="shared" ref="C41:H41" si="3">SUM(C8:C40)</f>
-        <v>11707087224</v>
-      </c>
-      <c r="D41" s="37">
-        <f t="shared" si="3"/>
-        <v>11707087224</v>
-      </c>
-      <c r="E41" s="37">
-        <f t="shared" si="3"/>
-        <v>1022454794</v>
-      </c>
-      <c r="F41" s="37">
-        <f t="shared" si="3"/>
-        <v>1022454794</v>
-      </c>
-      <c r="G41" s="37">
-        <f t="shared" si="3"/>
-        <v>11545179974</v>
-      </c>
-      <c r="H41" s="37">
-        <f t="shared" si="3"/>
-        <v>11545179974</v>
-      </c>
-      <c r="I41" s="38"/>
-    </row>
-    <row r="42" ht="12" customHeight="1">
-      <c r="A42" s="39"/>
-      <c r="B42" s="40"/>
-      <c r="C42" s="41"/>
-      <c r="D42" s="40"/>
-      <c r="E42" s="40"/>
-      <c r="F42" s="40"/>
-      <c r="G42" s="40"/>
-      <c r="H42" s="40"/>
-    </row>
-    <row r="43" ht="15">
-      <c r="A43" s="39"/>
-      <c r="B43" s="40"/>
-      <c r="C43" s="40"/>
-      <c r="D43" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="E43" s="42"/>
-      <c r="F43" s="42"/>
-      <c r="G43" s="40"/>
-      <c r="H43" s="40"/>
-    </row>
-    <row r="44" ht="5.25" customHeight="1">
-      <c r="A44" s="39"/>
-      <c r="B44" s="40"/>
-      <c r="C44" s="40"/>
-      <c r="D44" s="39"/>
-      <c r="E44" s="39"/>
-      <c r="F44" s="39"/>
-      <c r="G44" s="40"/>
-      <c r="H44" s="40"/>
-    </row>
-    <row r="45" ht="16.5">
-      <c r="A45" s="39"/>
-      <c r="B45" s="40"/>
-      <c r="C45" s="40"/>
-      <c r="D45" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
-      <c r="G45" s="40"/>
-      <c r="H45" s="40"/>
+      <c r="G45" s="47"/>
+      <c r="H45" s="47"/>
     </row>
     <row r="46" ht="12.75" customHeight="1">
-      <c r="A46" s="39"/>
-      <c r="B46" s="40"/>
-      <c r="C46" s="40"/>
-      <c r="D46" s="40"/>
-      <c r="E46" s="40"/>
-      <c r="F46" s="40"/>
-      <c r="G46" s="40"/>
-      <c r="H46" s="40"/>
+      <c r="A46" s="46"/>
+      <c r="B46" s="47"/>
+      <c r="C46" s="47"/>
+      <c r="D46" s="47"/>
+      <c r="E46" s="47"/>
+      <c r="F46" s="47"/>
+      <c r="G46" s="47"/>
+      <c r="H46" s="47"/>
     </row>
     <row r="47" ht="15">
-      <c r="A47" s="39"/>
-      <c r="B47" s="42" t="s">
+      <c r="A47" s="46"/>
+      <c r="B47" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="C47" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="D47" s="46"/>
+      <c r="E47" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="C47" s="42" t="s">
+      <c r="F47" s="46"/>
+      <c r="G47" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="D47" s="39"/>
-      <c r="E47" s="42" t="s">
+      <c r="H47" s="47"/>
+    </row>
+    <row r="48" ht="9.75" customHeight="1">
+      <c r="A48" s="46"/>
+      <c r="B48" s="46"/>
+      <c r="C48" s="46"/>
+      <c r="D48" s="46"/>
+      <c r="E48" s="46"/>
+      <c r="F48" s="46"/>
+      <c r="G48" s="46"/>
+      <c r="H48" s="47"/>
+    </row>
+    <row r="49" ht="15">
+      <c r="A49" s="46"/>
+      <c r="B49" s="46"/>
+      <c r="C49" s="46"/>
+      <c r="D49" s="46"/>
+      <c r="E49" s="46"/>
+      <c r="F49" s="46"/>
+      <c r="G49" s="46"/>
+      <c r="H49" s="47"/>
+    </row>
+    <row r="50" ht="6.75" customHeight="1">
+      <c r="A50" s="46"/>
+      <c r="B50" s="46"/>
+      <c r="C50" s="46"/>
+      <c r="D50" s="46"/>
+      <c r="E50" s="46"/>
+      <c r="F50" s="46"/>
+      <c r="G50" s="46"/>
+      <c r="H50" s="47"/>
+    </row>
+    <row r="51" ht="15">
+      <c r="A51" s="46"/>
+      <c r="B51" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="F47" s="39"/>
-      <c r="G47" s="42" t="s">
+      <c r="C51" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="H47" s="40"/>
-    </row>
-    <row r="48" ht="9.75" customHeight="1">
-      <c r="A48" s="39"/>
-      <c r="B48" s="39"/>
-      <c r="C48" s="39"/>
-      <c r="D48" s="39"/>
-      <c r="E48" s="39"/>
-      <c r="F48" s="39"/>
-      <c r="G48" s="39"/>
-      <c r="H48" s="40"/>
-    </row>
-    <row r="49" ht="15">
-      <c r="A49" s="39"/>
-      <c r="B49" s="39"/>
-      <c r="C49" s="39"/>
-      <c r="D49" s="39"/>
-      <c r="E49" s="39"/>
-      <c r="F49" s="39"/>
-      <c r="G49" s="39"/>
-      <c r="H49" s="40"/>
-    </row>
-    <row r="50" ht="6.75" customHeight="1">
-      <c r="A50" s="39"/>
-      <c r="B50" s="39"/>
-      <c r="C50" s="39"/>
-      <c r="D50" s="39"/>
-      <c r="E50" s="39"/>
-      <c r="F50" s="39"/>
-      <c r="G50" s="39"/>
-      <c r="H50" s="40"/>
-    </row>
-    <row r="51" ht="15">
-      <c r="A51" s="39"/>
-      <c r="B51" s="43" t="s">
+      <c r="D51" s="51"/>
+      <c r="E51" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="C51" s="43" t="s">
+      <c r="F51" s="51"/>
+      <c r="G51" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="D51" s="44"/>
-      <c r="E51" s="43" t="s">
+      <c r="H51" s="52"/>
+    </row>
+    <row r="53" ht="15">
+      <c r="B53" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="F51" s="44"/>
-      <c r="G51" s="43" t="s">
+      <c r="C53" s="49"/>
+    </row>
+    <row r="58" ht="15">
+      <c r="B58" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="H51" s="45"/>
-    </row>
-    <row r="53" ht="15">
-      <c r="B53" s="42" t="s">
+      <c r="C58" s="53" t="s">
         <v>55</v>
-      </c>
-      <c r="C53" s="42"/>
-    </row>
-    <row r="58" ht="15">
-      <c r="B58" s="46" t="s">
-        <v>56</v>
-      </c>
-      <c r="C58" s="46" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -2418,7 +2375,7 @@
   </mergeCells>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.98425196850393704" right="0.19685039370078738" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="60" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="2147483648" verticalDpi="180" copies="1"/>
+  <pageSetup paperSize="9" scale="60" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="2147483648" verticalDpi="180" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -2426,7 +2383,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="100" workbookViewId="0">
       <selection activeCell="F34" activeCellId="0" sqref="F34"/>
     </sheetView>
   </sheetViews>
@@ -2467,9 +2424,7 @@
       <c r="H2" s="3"/>
     </row>
     <row r="3" ht="12" customHeight="1">
-      <c r="A3" s="3" t="s">
-        <v>58</v>
-      </c>
+      <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -2479,9 +2434,7 @@
       <c r="H3" s="3"/>
     </row>
     <row r="4" ht="16.5">
-      <c r="A4" s="4" t="s">
-        <v>59</v>
-      </c>
+      <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -2491,528 +2444,485 @@
       <c r="H4" s="4"/>
     </row>
     <row r="5" ht="9" customHeight="1">
-      <c r="A5" s="47"/>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
+      <c r="A5" s="54"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
     <row r="6" ht="25.5" customHeight="1">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="56" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="57" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="57" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="57" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" s="58"/>
+      <c r="H6" s="58"/>
+    </row>
+    <row r="7" ht="15.75">
+      <c r="A7" s="59"/>
+      <c r="B7" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="60" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" s="61"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="62"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="58"/>
+    </row>
+    <row r="9" ht="16.5">
+      <c r="A9" s="64">
+        <v>1</v>
+      </c>
+      <c r="B9" s="65" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="66"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="67" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" s="63"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="58"/>
+    </row>
+    <row r="10" ht="16.5">
+      <c r="A10" s="64"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="69">
+        <v>1</v>
+      </c>
+      <c r="E10" s="65" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" s="70"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
+    </row>
+    <row r="11" ht="16.5">
+      <c r="A11" s="64">
+        <v>2</v>
+      </c>
+      <c r="B11" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="70"/>
+      <c r="D11" s="69">
+        <v>2</v>
+      </c>
+      <c r="E11" s="65" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" s="70"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="58"/>
+    </row>
+    <row r="12" ht="16.5">
+      <c r="A12" s="64"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="69">
         <v>3</v>
       </c>
-      <c r="B6" s="50" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="50" t="s">
-        <v>61</v>
-      </c>
-      <c r="D6" s="50" t="s">
+      <c r="E12" s="65" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="70"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="58"/>
+    </row>
+    <row r="13" ht="16.5">
+      <c r="A13" s="64">
         <v>3</v>
       </c>
-      <c r="E6" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="F6" s="50" t="s">
-        <v>61</v>
-      </c>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-    </row>
-    <row r="7" ht="15.75">
-      <c r="A7" s="52"/>
-      <c r="B7" s="53" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="53" t="s">
+      <c r="B13" s="65" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="71"/>
+      <c r="D13" s="69">
+        <v>4</v>
+      </c>
+      <c r="E13" s="65" t="s">
         <v>64</v>
       </c>
-      <c r="F7" s="54"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="55"/>
-      <c r="B8" s="56"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-    </row>
-    <row r="9" ht="16.5">
-      <c r="A9" s="57">
-        <v>1</v>
-      </c>
-      <c r="B9" s="58" t="s">
+      <c r="F13" s="70"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+    </row>
+    <row r="14" ht="16.5">
+      <c r="A14" s="62"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="69">
+        <v>5</v>
+      </c>
+      <c r="E14" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="70"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="58"/>
+    </row>
+    <row r="15" ht="16.5">
+      <c r="A15" s="62"/>
+      <c r="B15" s="67" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="72">
+        <f>SUM(C9:C13)</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="69">
+        <v>6</v>
+      </c>
+      <c r="E15" s="65" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="70"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="58"/>
+    </row>
+    <row r="16" ht="16.5">
+      <c r="A16" s="62"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="69">
+        <v>7</v>
+      </c>
+      <c r="E16" s="65" t="s">
+        <v>66</v>
+      </c>
+      <c r="F16" s="70"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="58"/>
+    </row>
+    <row r="17" ht="16.5">
+      <c r="A17" s="62"/>
+      <c r="B17" s="67" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="65"/>
+      <c r="D17" s="69">
+        <v>8</v>
+      </c>
+      <c r="E17" s="65" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" s="70"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="58"/>
+    </row>
+    <row r="18" ht="16.5">
+      <c r="A18" s="62"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="69">
+        <v>9</v>
+      </c>
+      <c r="E18" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="73"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="58"/>
+    </row>
+    <row r="19" ht="16.5">
+      <c r="A19" s="62"/>
+      <c r="B19" s="74" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="65"/>
+      <c r="D19" s="74"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="58"/>
+    </row>
+    <row r="20" ht="16.5">
+      <c r="A20" s="62"/>
+      <c r="B20" s="74"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="75" t="s">
+        <v>68</v>
+      </c>
+      <c r="F20" s="72">
+        <f>SUM(F10:F18)</f>
+        <v>0</v>
+      </c>
+      <c r="G20" s="58"/>
+      <c r="H20" s="58"/>
+    </row>
+    <row r="21" ht="16.5">
+      <c r="A21" s="62"/>
+      <c r="B21" s="74" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="65"/>
+      <c r="D21" s="74"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="58"/>
+    </row>
+    <row r="22" ht="16.5">
+      <c r="A22" s="62"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="74"/>
+      <c r="E22" s="67" t="s">
+        <v>69</v>
+      </c>
+      <c r="F22" s="63"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="58"/>
+    </row>
+    <row r="23" ht="16.5">
+      <c r="A23" s="62"/>
+      <c r="B23" s="67" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="65"/>
+      <c r="D23" s="74">
         <v>10</v>
       </c>
-      <c r="C9" s="59">
-        <v>543923000</v>
-      </c>
-      <c r="D9" s="56"/>
-      <c r="E9" s="60" t="s">
-        <v>65</v>
-      </c>
-      <c r="F9" s="56"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-    </row>
-    <row r="10" ht="16.5">
-      <c r="A10" s="57"/>
-      <c r="B10" s="61"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="62">
-        <v>1</v>
-      </c>
-      <c r="E10" s="58" t="s">
-        <v>66</v>
-      </c>
-      <c r="F10" s="63">
-        <v>793145</v>
-      </c>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-    </row>
-    <row r="11" ht="16.5">
-      <c r="A11" s="57">
-        <v>2</v>
-      </c>
-      <c r="B11" s="58" t="s">
+      <c r="E23" s="65" t="s">
+        <v>71</v>
+      </c>
+      <c r="F23" s="73"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="58"/>
+    </row>
+    <row r="24" ht="16.5">
+      <c r="A24" s="62"/>
+      <c r="B24" s="63"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="74"/>
+      <c r="E24" s="63"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="58"/>
+    </row>
+    <row r="25" ht="16.5">
+      <c r="A25" s="76">
+        <v>4</v>
+      </c>
+      <c r="B25" s="65" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="70"/>
+      <c r="D25" s="74"/>
+      <c r="E25" s="77" t="s">
+        <v>72</v>
+      </c>
+      <c r="F25" s="78">
+        <f>SUM(F20:F23)</f>
+        <v>0</v>
+      </c>
+      <c r="G25" s="58"/>
+      <c r="H25" s="58"/>
+    </row>
+    <row r="26" ht="16.5">
+      <c r="A26" s="62"/>
+      <c r="B26" s="65" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" s="71"/>
+      <c r="D26" s="74"/>
+      <c r="E26" s="65"/>
+      <c r="F26" s="65"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="58"/>
+    </row>
+    <row r="27" ht="16.5">
+      <c r="A27" s="62"/>
+      <c r="B27" s="63"/>
+      <c r="C27" s="65"/>
+      <c r="D27" s="74"/>
+      <c r="E27" s="75" t="s">
+        <v>74</v>
+      </c>
+      <c r="F27" s="65"/>
+      <c r="G27" s="58"/>
+      <c r="H27" s="58"/>
+    </row>
+    <row r="28" ht="16.5">
+      <c r="A28" s="62"/>
+      <c r="B28" s="63"/>
+      <c r="C28" s="72">
+        <f>(C25-C26)</f>
+        <v>0</v>
+      </c>
+      <c r="D28" s="79">
         <v>11</v>
       </c>
-      <c r="C11" s="63">
-        <v>10946641974</v>
-      </c>
-      <c r="D11" s="62">
-        <v>2</v>
-      </c>
-      <c r="E11" s="58" t="s">
-        <v>67</v>
-      </c>
-      <c r="F11" s="63">
-        <v>287983254</v>
-      </c>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-    </row>
-    <row r="12" ht="16.5">
-      <c r="A12" s="57"/>
-      <c r="B12" s="58"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="62">
-        <v>3</v>
-      </c>
-      <c r="E12" s="58" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="63">
-        <v>218728760</v>
-      </c>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-    </row>
-    <row r="13" ht="16.5">
-      <c r="A13" s="57">
-        <v>3</v>
-      </c>
-      <c r="B13" s="58" t="s">
+      <c r="E28" s="65" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28" s="70"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="58"/>
+    </row>
+    <row r="29" ht="16.5">
+      <c r="A29" s="62"/>
+      <c r="B29" s="63"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="79">
         <v>12</v>
       </c>
-      <c r="C13" s="64">
-        <v>390000</v>
-      </c>
-      <c r="D13" s="62">
-        <v>4</v>
-      </c>
-      <c r="E13" s="58" t="s">
-        <v>68</v>
-      </c>
-      <c r="F13" s="63">
-        <v>50930650</v>
-      </c>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-    </row>
-    <row r="14" ht="16.5">
-      <c r="A14" s="55"/>
-      <c r="B14" s="56"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="62">
-        <v>5</v>
-      </c>
-      <c r="E14" s="58" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" s="63">
-        <v>97854870</v>
-      </c>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-    </row>
-    <row r="15" ht="16.5">
-      <c r="A15" s="55"/>
-      <c r="B15" s="60" t="s">
-        <v>69</v>
-      </c>
-      <c r="C15" s="65">
-        <f>SUM(C9:C13)</f>
-        <v>11490954974</v>
-      </c>
-      <c r="D15" s="62">
-        <v>6</v>
-      </c>
-      <c r="E15" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="63">
-        <v>161341195</v>
-      </c>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-    </row>
-    <row r="16" ht="16.5">
-      <c r="A16" s="55"/>
-      <c r="B16" s="56"/>
-      <c r="C16" s="58"/>
-      <c r="D16" s="62">
-        <v>7</v>
-      </c>
-      <c r="E16" s="58" t="s">
-        <v>70</v>
-      </c>
-      <c r="F16" s="63">
-        <v>6968727</v>
-      </c>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
-    </row>
-    <row r="17" ht="16.5">
-      <c r="A17" s="55"/>
-      <c r="B17" s="60" t="s">
-        <v>71</v>
-      </c>
-      <c r="C17" s="58"/>
-      <c r="D17" s="62">
-        <v>8</v>
-      </c>
-      <c r="E17" s="58" t="s">
-        <v>36</v>
-      </c>
-      <c r="F17" s="63">
-        <v>684041004</v>
-      </c>
-      <c r="G17" s="51"/>
-      <c r="H17" s="51"/>
-    </row>
-    <row r="18" ht="16.5">
-      <c r="A18" s="55"/>
-      <c r="B18" s="56"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="62">
-        <v>9</v>
-      </c>
-      <c r="E18" s="58" t="s">
-        <v>25</v>
-      </c>
-      <c r="F18" s="66">
-        <v>1868022</v>
-      </c>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
-    </row>
-    <row r="19" ht="16.5">
-      <c r="A19" s="55"/>
-      <c r="B19" s="67" t="s">
+      <c r="E29" s="65" t="s">
+        <v>26</v>
+      </c>
+      <c r="F29" s="70"/>
+      <c r="G29" s="58"/>
+      <c r="H29" s="58"/>
+    </row>
+    <row r="30" ht="16.5">
+      <c r="A30" s="62"/>
+      <c r="B30" s="63"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="79">
+        <v>13</v>
+      </c>
+      <c r="E30" s="65" t="s">
+        <v>75</v>
+      </c>
+      <c r="F30" s="70"/>
+      <c r="G30" s="58"/>
+      <c r="H30" s="58"/>
+    </row>
+    <row r="31" ht="16.5">
+      <c r="A31" s="62"/>
+      <c r="B31" s="63"/>
+      <c r="C31" s="63"/>
+      <c r="D31" s="79">
         <v>14</v>
       </c>
-      <c r="C19" s="58"/>
-      <c r="D19" s="67"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="51"/>
-    </row>
-    <row r="20" ht="16.5">
-      <c r="A20" s="55"/>
-      <c r="B20" s="67"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="67"/>
-      <c r="E20" s="68" t="s">
-        <v>72</v>
-      </c>
-      <c r="F20" s="65">
-        <f>SUM(F10:F18)</f>
-        <v>1510509627</v>
-      </c>
-      <c r="G20" s="51"/>
-      <c r="H20" s="51"/>
-    </row>
-    <row r="21" ht="16.5">
-      <c r="A21" s="55"/>
-      <c r="B21" s="67" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="58"/>
-      <c r="D21" s="67"/>
-      <c r="E21" s="56"/>
-      <c r="F21" s="56"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="51"/>
-    </row>
-    <row r="22" ht="16.5">
-      <c r="A22" s="55"/>
-      <c r="B22" s="56"/>
-      <c r="C22" s="58"/>
-      <c r="D22" s="67"/>
-      <c r="E22" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="F22" s="56"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="51"/>
-    </row>
-    <row r="23" ht="16.5">
-      <c r="A23" s="55"/>
-      <c r="B23" s="60" t="s">
-        <v>74</v>
-      </c>
-      <c r="C23" s="58"/>
-      <c r="D23" s="67">
-        <v>10</v>
-      </c>
-      <c r="E23" s="58" t="s">
-        <v>75</v>
-      </c>
-      <c r="F23" s="66">
-        <v>41139446</v>
-      </c>
-      <c r="G23" s="51"/>
-      <c r="H23" s="51"/>
-    </row>
-    <row r="24" ht="16.5">
-      <c r="A24" s="55"/>
-      <c r="B24" s="56"/>
-      <c r="C24" s="58"/>
-      <c r="D24" s="67"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="51"/>
-    </row>
-    <row r="25" ht="16.5">
-      <c r="A25" s="69">
-        <v>4</v>
-      </c>
-      <c r="B25" s="58" t="s">
+      <c r="E31" s="65" t="s">
+        <v>76</v>
+      </c>
+      <c r="F31" s="70"/>
+      <c r="G31" s="58"/>
+      <c r="H31" s="58"/>
+    </row>
+    <row r="32" ht="16.5">
+      <c r="A32" s="62"/>
+      <c r="B32" s="63"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="79">
         <v>15</v>
       </c>
-      <c r="C25" s="63">
-        <v>54225000</v>
-      </c>
-      <c r="D25" s="67"/>
-      <c r="E25" s="70" t="s">
-        <v>76</v>
-      </c>
-      <c r="F25" s="71">
-        <f>SUM(F20:F23)</f>
-        <v>1551649073</v>
-      </c>
-      <c r="G25" s="51"/>
-      <c r="H25" s="51"/>
-    </row>
-    <row r="26" ht="16.5">
-      <c r="A26" s="55"/>
-      <c r="B26" s="58" t="s">
+      <c r="E32" s="65" t="s">
         <v>77</v>
       </c>
-      <c r="C26" s="64">
-        <v>-14539750</v>
-      </c>
-      <c r="D26" s="67"/>
-      <c r="E26" s="58"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="51"/>
-      <c r="H26" s="51"/>
-    </row>
-    <row r="27" ht="16.5">
-      <c r="A27" s="55"/>
-      <c r="B27" s="56"/>
-      <c r="C27" s="58"/>
-      <c r="D27" s="67"/>
-      <c r="E27" s="68" t="s">
+      <c r="F32" s="70"/>
+      <c r="G32" s="58"/>
+      <c r="H32" s="58"/>
+    </row>
+    <row r="33" ht="16.5">
+      <c r="A33" s="62"/>
+      <c r="B33" s="63"/>
+      <c r="C33" s="63"/>
+      <c r="D33" s="79">
+        <v>16</v>
+      </c>
+      <c r="E33" s="65" t="s">
         <v>78</v>
       </c>
-      <c r="F27" s="58"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="51"/>
-    </row>
-    <row r="28" ht="16.5">
-      <c r="A28" s="55"/>
-      <c r="B28" s="56"/>
-      <c r="C28" s="65">
-        <v>39685250</v>
-      </c>
-      <c r="D28" s="72">
-        <v>11</v>
-      </c>
-      <c r="E28" s="58" t="s">
-        <v>26</v>
-      </c>
-      <c r="F28" s="63">
-        <v>15504000</v>
-      </c>
-      <c r="G28" s="51"/>
-      <c r="H28" s="51"/>
-    </row>
-    <row r="29" ht="16.5">
-      <c r="A29" s="55"/>
-      <c r="B29" s="56"/>
-      <c r="C29" s="56"/>
-      <c r="D29" s="72">
-        <v>12</v>
-      </c>
-      <c r="E29" s="58" t="s">
-        <v>27</v>
-      </c>
-      <c r="F29" s="63">
-        <v>7087018000</v>
-      </c>
-      <c r="G29" s="51"/>
-      <c r="H29" s="51"/>
-    </row>
-    <row r="30" ht="16.5">
-      <c r="A30" s="55"/>
-      <c r="B30" s="56"/>
-      <c r="C30" s="56"/>
-      <c r="D30" s="72">
-        <v>13</v>
-      </c>
-      <c r="E30" s="58" t="s">
+      <c r="F33" s="73"/>
+      <c r="G33" s="58"/>
+      <c r="H33" s="58"/>
+    </row>
+    <row r="34" ht="9" customHeight="1">
+      <c r="A34" s="62"/>
+      <c r="B34" s="63"/>
+      <c r="C34" s="63"/>
+      <c r="D34" s="63"/>
+      <c r="E34" s="63"/>
+      <c r="F34" s="63"/>
+      <c r="G34" s="58"/>
+      <c r="H34" s="58"/>
+    </row>
+    <row r="35" ht="17.25">
+      <c r="A35" s="62"/>
+      <c r="B35" s="63"/>
+      <c r="C35" s="63"/>
+      <c r="D35" s="63"/>
+      <c r="E35" s="63"/>
+      <c r="F35" s="80">
+        <f>SUM(F28:F33)</f>
+        <v>0</v>
+      </c>
+      <c r="G35" s="58"/>
+      <c r="H35" s="58"/>
+    </row>
+    <row r="36" ht="16.5">
+      <c r="A36" s="81"/>
+      <c r="B36" s="82" t="s">
         <v>79</v>
       </c>
-      <c r="F30" s="63">
-        <v>188334400</v>
-      </c>
-      <c r="G30" s="51"/>
-      <c r="H30" s="51"/>
-    </row>
-    <row r="31" ht="16.5">
-      <c r="A31" s="55"/>
-      <c r="B31" s="56"/>
-      <c r="C31" s="56"/>
-      <c r="D31" s="72">
-        <v>14</v>
-      </c>
-      <c r="E31" s="58" t="s">
+      <c r="C36" s="83">
+        <f>SUM(C15+C28)</f>
+        <v>0</v>
+      </c>
+      <c r="D36" s="84"/>
+      <c r="E36" s="85" t="s">
         <v>80</v>
       </c>
-      <c r="F31" s="63">
-        <v>1841600895</v>
-      </c>
-      <c r="G31" s="51"/>
-      <c r="H31" s="51"/>
-    </row>
-    <row r="32" ht="16.5">
-      <c r="A32" s="55"/>
-      <c r="B32" s="56"/>
-      <c r="C32" s="56"/>
-      <c r="D32" s="72">
-        <v>15</v>
-      </c>
-      <c r="E32" s="58" t="s">
-        <v>81</v>
-      </c>
-      <c r="F32" s="63">
-        <v>7500000</v>
-      </c>
-      <c r="G32" s="51"/>
-      <c r="H32" s="51"/>
-    </row>
-    <row r="33" ht="16.5">
-      <c r="A33" s="55"/>
-      <c r="B33" s="56"/>
-      <c r="C33" s="56"/>
-      <c r="D33" s="72">
-        <v>16</v>
-      </c>
-      <c r="E33" s="58" t="s">
-        <v>82</v>
-      </c>
-      <c r="F33" s="66">
-        <v>839033856</v>
-      </c>
-      <c r="G33" s="51"/>
-      <c r="H33" s="51"/>
-    </row>
-    <row r="34" ht="9" customHeight="1">
-      <c r="A34" s="55"/>
-      <c r="B34" s="56"/>
-      <c r="C34" s="56"/>
-      <c r="D34" s="56"/>
-      <c r="E34" s="56"/>
-      <c r="F34" s="56"/>
-      <c r="G34" s="51"/>
-      <c r="H34" s="51"/>
-    </row>
-    <row r="35" ht="17.25">
-      <c r="A35" s="55"/>
-      <c r="B35" s="56"/>
-      <c r="C35" s="56"/>
-      <c r="D35" s="56"/>
-      <c r="E35" s="56"/>
-      <c r="F35" s="73">
-        <f>SUM(F28:F33)</f>
-        <v>9978991151</v>
-      </c>
-      <c r="G35" s="51"/>
-      <c r="H35" s="51"/>
-    </row>
-    <row r="36" ht="16.5">
-      <c r="A36" s="74"/>
-      <c r="B36" s="75" t="s">
-        <v>83</v>
-      </c>
-      <c r="C36" s="76">
-        <f>SUM(C15+C28)</f>
-        <v>11530640224</v>
-      </c>
-      <c r="D36" s="77"/>
-      <c r="E36" s="78" t="s">
-        <v>84</v>
-      </c>
-      <c r="F36" s="76">
+      <c r="F36" s="83">
         <f>SUM(F25+F35)</f>
-        <v>11530640224</v>
-      </c>
-      <c r="G36" s="51"/>
-      <c r="H36" s="51"/>
+        <v>0</v>
+      </c>
+      <c r="G36" s="58"/>
+      <c r="H36" s="58"/>
     </row>
     <row r="37" ht="15.75">
-      <c r="A37" s="79"/>
-      <c r="B37" s="51"/>
-      <c r="C37" s="51"/>
-      <c r="D37" s="51"/>
-      <c r="E37" s="51"/>
-      <c r="F37" s="51"/>
-      <c r="G37" s="51"/>
-      <c r="H37" s="51"/>
+      <c r="A37" s="86"/>
+      <c r="B37" s="58"/>
+      <c r="C37" s="58"/>
+      <c r="D37" s="58"/>
+      <c r="E37" s="58"/>
+      <c r="F37" s="58"/>
+      <c r="G37" s="58"/>
+      <c r="H37" s="58"/>
     </row>
     <row r="38">
       <c r="A38" s="2"/>
       <c r="B38" s="1"/>
-      <c r="C38" s="80" t="s">
-        <v>45</v>
-      </c>
-      <c r="D38" s="80"/>
-      <c r="E38" s="80"/>
-      <c r="F38" s="80"/>
+      <c r="C38" s="87"/>
+      <c r="D38" s="87"/>
+      <c r="E38" s="87"/>
+      <c r="F38" s="87"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
     </row>
@@ -3029,12 +2939,12 @@
     <row r="40">
       <c r="A40" s="2"/>
       <c r="B40" s="1"/>
-      <c r="C40" s="81" t="s">
-        <v>46</v>
-      </c>
-      <c r="D40" s="81"/>
-      <c r="E40" s="81"/>
-      <c r="F40" s="81"/>
+      <c r="C40" s="88" t="s">
+        <v>44</v>
+      </c>
+      <c r="D40" s="88"/>
+      <c r="E40" s="88"/>
+      <c r="F40" s="88"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
     </row>
@@ -3051,19 +2961,19 @@
     <row r="42">
       <c r="A42" s="2"/>
       <c r="B42" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D42" s="2"/>
-      <c r="E42" s="82" t="s">
-        <v>49</v>
-      </c>
-      <c r="F42" s="83" t="s">
-        <v>50</v>
-      </c>
-      <c r="G42" s="83"/>
+      <c r="E42" s="89" t="s">
+        <v>47</v>
+      </c>
+      <c r="F42" s="90" t="s">
+        <v>48</v>
+      </c>
+      <c r="G42" s="90"/>
       <c r="H42" s="1"/>
     </row>
     <row r="43">
@@ -3088,21 +2998,21 @@
     </row>
     <row r="45">
       <c r="A45" s="2"/>
-      <c r="B45" s="84" t="s">
+      <c r="B45" s="91" t="s">
+        <v>49</v>
+      </c>
+      <c r="C45" s="91" t="s">
+        <v>50</v>
+      </c>
+      <c r="D45" s="92"/>
+      <c r="E45" s="93" t="s">
         <v>51</v>
       </c>
-      <c r="C45" s="84" t="s">
+      <c r="F45" s="94" t="s">
         <v>52</v>
       </c>
-      <c r="D45" s="85"/>
-      <c r="E45" s="86" t="s">
-        <v>53</v>
-      </c>
-      <c r="F45" s="87" t="s">
-        <v>54</v>
-      </c>
-      <c r="G45" s="87"/>
-      <c r="H45" s="87"/>
+      <c r="G45" s="94"/>
+      <c r="H45" s="94"/>
     </row>
     <row r="46">
       <c r="A46" s="2"/>
@@ -3115,10 +3025,10 @@
       <c r="H46" s="1"/>
     </row>
     <row r="47" ht="15">
-      <c r="B47" s="42" t="s">
-        <v>55</v>
-      </c>
-      <c r="C47" s="42"/>
+      <c r="B47" s="49" t="s">
+        <v>53</v>
+      </c>
+      <c r="C47" s="49"/>
     </row>
     <row r="48">
       <c r="B48" s="1"/>
@@ -3137,11 +3047,11 @@
       <c r="C51" s="1"/>
     </row>
     <row r="52" ht="15">
-      <c r="B52" s="46" t="s">
-        <v>56</v>
-      </c>
-      <c r="C52" s="46" t="s">
-        <v>57</v>
+      <c r="B52" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="C52" s="53" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -3157,7 +3067,7 @@
   </mergeCells>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="1.5748031496062991" right="1.181102362204725" top="0.19685039370078738" bottom="0.19685039370078738" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="75" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="0" verticalDpi="0" copies="1"/>
+  <pageSetup paperSize="9" scale="75" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="0" verticalDpi="0" copies="1"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -3174,7 +3084,7 @@
   <sheetData/>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>